--- a/ReactNative-IMLib功能清单.xlsx
+++ b/ReactNative-IMLib功能清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lvpeng/Documents/融云工作文档/公有云文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93788E3-9BE8-D440-993E-AF957AB42E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC26D19-E401-5A4A-97A5-2197252D1F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="94">
   <si>
     <t>一级</t>
   </si>
@@ -286,13 +286,31 @@
   <si>
     <t>Android</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米</t>
+  </si>
+  <si>
+    <t>华为</t>
+  </si>
+  <si>
+    <t>FCM</t>
+  </si>
+  <si>
+    <t>OPPO</t>
+  </si>
+  <si>
+    <t>vivo</t>
+  </si>
+  <si>
+    <t>魅族</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -307,6 +325,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -414,15 +439,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -437,6 +453,15 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1628,10 +1653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16.75" customHeight="1"/>
@@ -1655,10 +1680,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="22" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1666,29 +1691,29 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="22" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="22" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="22" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="22" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1696,29 +1721,29 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="22" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="22" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="22" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="22" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1726,50 +1751,50 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="22" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="22" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="22" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="22" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="22" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="22" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="22" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1777,29 +1802,29 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="22" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="22" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="22" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="22" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1807,15 +1832,15 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="22" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="22" customHeight="1">
-      <c r="A23" s="14"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1823,22 +1848,22 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="22" customHeight="1">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="22" customHeight="1">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="22" customHeight="1">
-      <c r="A26" s="14"/>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -1846,14 +1871,14 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="22" customHeight="1">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="22" customHeight="1">
-      <c r="A28" s="14"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="3" t="s">
         <v>38</v>
       </c>
@@ -1862,10 +1887,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="22" customHeight="1">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1873,85 +1898,85 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="22" customHeight="1">
-      <c r="A30" s="16"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="22" customHeight="1">
-      <c r="A31" s="16"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="22" customHeight="1">
-      <c r="A32" s="16"/>
-      <c r="B32" s="14"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="22" customHeight="1">
-      <c r="A33" s="16"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="22" customHeight="1">
-      <c r="A34" s="16"/>
-      <c r="B34" s="14"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="22" customHeight="1">
-      <c r="A35" s="16"/>
-      <c r="B35" s="14"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="22" customHeight="1">
-      <c r="A36" s="16"/>
-      <c r="B36" s="14"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="22" customHeight="1">
-      <c r="A37" s="16"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="11"/>
       <c r="C37" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="22" customHeight="1">
-      <c r="A38" s="16"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="22" customHeight="1">
-      <c r="A39" s="16"/>
-      <c r="B39" s="14"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="22" customHeight="1">
-      <c r="A40" s="16"/>
-      <c r="B40" s="14"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="22" customHeight="1">
-      <c r="A41" s="16"/>
-      <c r="B41" s="13" t="s">
+      <c r="A41" s="13"/>
+      <c r="B41" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -1959,63 +1984,63 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="22" customHeight="1">
-      <c r="A42" s="16"/>
-      <c r="B42" s="14"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="22" customHeight="1">
-      <c r="A43" s="16"/>
-      <c r="B43" s="14"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="22" customHeight="1">
-      <c r="A44" s="16"/>
-      <c r="B44" s="14"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="22" customHeight="1">
-      <c r="A45" s="16"/>
-      <c r="B45" s="14"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="11"/>
       <c r="C45" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="22" customHeight="1">
-      <c r="A46" s="16"/>
-      <c r="B46" s="14"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="11"/>
       <c r="C46" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="22" customHeight="1">
-      <c r="A47" s="16"/>
-      <c r="B47" s="14"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="22" customHeight="1">
-      <c r="A48" s="16"/>
-      <c r="B48" s="14"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="11"/>
       <c r="C48" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="22" customHeight="1">
-      <c r="A49" s="16"/>
-      <c r="B49" s="14"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="11"/>
       <c r="C49" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="22" customHeight="1">
-      <c r="A50" s="16"/>
+      <c r="A50" s="13"/>
       <c r="B50" s="4" t="s">
         <v>86</v>
       </c>
@@ -2024,8 +2049,8 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="22" customHeight="1">
-      <c r="A51" s="16"/>
-      <c r="B51" s="13" t="s">
+      <c r="A51" s="13"/>
+      <c r="B51" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="5" t="s">
@@ -2033,24 +2058,24 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="22" customHeight="1">
-      <c r="A52" s="16"/>
-      <c r="B52" s="14"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="11"/>
       <c r="C52" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="22" customHeight="1">
-      <c r="A53" s="16"/>
-      <c r="B53" s="14"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="11"/>
       <c r="C53" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="22" customHeight="1">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C54" s="5" t="s">
@@ -2058,92 +2083,92 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="22" customHeight="1">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
       <c r="C55" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="22" customHeight="1">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
       <c r="C56" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="22" customHeight="1">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="22" customHeight="1">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
       <c r="C58" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="22" customHeight="1">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
       <c r="C59" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="22" customHeight="1">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
       <c r="C60" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="22" customHeight="1">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
       <c r="C61" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="22" customHeight="1">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
       <c r="C62" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="22" customHeight="1">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
       <c r="C63" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="22" customHeight="1">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
       <c r="C64" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="22" customHeight="1">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
       <c r="C65" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="22" customHeight="1">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
       <c r="C66" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="22" customHeight="1">
-      <c r="A67" s="14"/>
-      <c r="B67" s="13" t="s">
+      <c r="A67" s="11"/>
+      <c r="B67" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -2151,63 +2176,63 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="22" customHeight="1">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
       <c r="C68" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="22" customHeight="1">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
       <c r="C69" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="22" customHeight="1">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
       <c r="C70" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="22" customHeight="1">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
       <c r="C71" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="22" customHeight="1">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
       <c r="C72" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="22" customHeight="1">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
       <c r="C73" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="22" customHeight="1">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
       <c r="C74" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="22" customHeight="1">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
       <c r="C75" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="22" customHeight="1">
-      <c r="A76" s="14"/>
+      <c r="A76" s="11"/>
       <c r="B76" s="4" t="s">
         <v>86</v>
       </c>
@@ -2216,8 +2241,8 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="22" customHeight="1">
-      <c r="A77" s="14"/>
-      <c r="B77" s="13" t="s">
+      <c r="A77" s="11"/>
+      <c r="B77" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C77" s="5" t="s">
@@ -2225,21 +2250,21 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="22" customHeight="1">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
       <c r="C78" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="22" customHeight="1">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
       <c r="C79" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="22" customHeight="1">
-      <c r="A80" s="17"/>
+      <c r="A80" s="14"/>
       <c r="B80" s="6" t="s">
         <v>72</v>
       </c>
@@ -2248,10 +2273,10 @@
       </c>
     </row>
     <row r="81" spans="1:3" ht="22" customHeight="1">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C81" s="8" t="s">
@@ -2259,29 +2284,29 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="22" customHeight="1">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
       <c r="C82" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="22" customHeight="1">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
       <c r="C83" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="22" customHeight="1">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
       <c r="C84" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="22" customHeight="1">
-      <c r="A85" s="12"/>
-      <c r="B85" s="11" t="s">
+      <c r="A85" s="16"/>
+      <c r="B85" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C85" s="8" t="s">
@@ -2289,42 +2314,42 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="22" customHeight="1">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
       <c r="C86" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="22" customHeight="1">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
       <c r="C87" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="22" customHeight="1">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
       <c r="C88" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="22" customHeight="1">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
       <c r="C89" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="22" customHeight="1">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
       <c r="C90" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="22" customHeight="1">
-      <c r="A91" s="12"/>
+      <c r="A91" s="16"/>
       <c r="B91" s="9" t="s">
         <v>81</v>
       </c>
@@ -2333,7 +2358,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="22" customHeight="1">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="15" t="s">
         <v>83</v>
       </c>
       <c r="B92" s="9" t="s">
@@ -2344,24 +2369,61 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="22" customHeight="1">
-      <c r="A93" s="12"/>
-      <c r="B93" s="10" t="s">
+      <c r="A93" s="15"/>
+      <c r="B93" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="22" customHeight="1">
+      <c r="A94" s="15"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="22" customHeight="1">
+      <c r="A95" s="15"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="22" customHeight="1">
+      <c r="A96" s="15"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="22" customHeight="1">
+      <c r="A97" s="15"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="22" customHeight="1">
+      <c r="A98" s="15"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="22" customHeight="1">
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="8" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A2:A28"/>
-    <mergeCell ref="A29:A53"/>
-    <mergeCell ref="A54:A80"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B81:B84"/>
+  <mergeCells count="21">
     <mergeCell ref="B85:B90"/>
     <mergeCell ref="A81:A91"/>
-    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A92:A99"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B16"/>
@@ -2374,6 +2436,12 @@
     <mergeCell ref="B51:B53"/>
     <mergeCell ref="B54:B66"/>
     <mergeCell ref="B67:B75"/>
+    <mergeCell ref="B93:B99"/>
+    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="A29:A53"/>
+    <mergeCell ref="A54:A80"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B81:B84"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930599999999998" right="0.69930599999999998" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
